--- a/第一次精度.xlsx
+++ b/第一次精度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\研究生\论文\Re-id\Unsupervised Person Re-identification via Softened Similarity Learning\softened-similarity-learning-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B9D1F-5563-47EE-9B3F-D193CBF6FFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB9085-9D50-47FE-8749-664134FC969C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="9576" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Top-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,6 +558,186 @@
         <v>0.54</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.57185299999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>0.51840900000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.710511</v>
+      </c>
+      <c r="D21">
+        <v>0.77226799999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0.58372900000000005</v>
+      </c>
+      <c r="C22">
+        <v>0.761876</v>
+      </c>
+      <c r="D22">
+        <v>0.81532099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0.59916899999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.77672200000000002</v>
+      </c>
+      <c r="D23">
+        <v>0.83016599999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0.59530899999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.77434700000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.83165100000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0.58848</v>
+      </c>
+      <c r="C25">
+        <v>0.76692400000000005</v>
+      </c>
+      <c r="D25">
+        <v>0.82482200000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.57185299999999994</v>
+      </c>
+      <c r="C26">
+        <v>0.76039199999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.82185299999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.57185299999999994</v>
+      </c>
+      <c r="C27">
+        <v>0.76039199999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.82185299999999994</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
